--- a/TR/TR_1/DADES.xlsx
+++ b/TR/TR_1/DADES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleri\Desktop\Flappy-bird_TR\TR\TR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1CCD05-6A53-4E26-91D4-590AA86AA4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46080932-ACEA-4CE3-86B6-A00ECF19174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{19D165D5-F221-4151-8D29-45839C280955}"/>
   </bookViews>
@@ -35,9 +35,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+  <si>
+    <t>1ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>FITNESS SCORE</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>2ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>3ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>4ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>5ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>6ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>7ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>8ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>9ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>10ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>11ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>12ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>13ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>14ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>15ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>16ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>17ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>18ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>19ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>20ST TRAINING, 1 BIRD, 20 GEN</t>
+  </si>
+  <si>
+    <t>FINAL RESULTS FROM TRAINING</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +119,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -62,12 +150,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +649,2921 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982D3FE9-CA60-4814-8D03-635434D3AD8B}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:BH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" customWidth="1"/>
+    <col min="42" max="42" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" customWidth="1"/>
+    <col min="45" max="45" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" customWidth="1"/>
+    <col min="48" max="48" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" customWidth="1"/>
+    <col min="51" max="51" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15" customWidth="1"/>
+    <col min="54" max="54" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5703125" customWidth="1"/>
+    <col min="57" max="57" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.28515625" customWidth="1"/>
+    <col min="60" max="60" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="N2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="Q2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="T2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="W2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Z2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="8"/>
+      <c r="AC2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AF2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="8"/>
+      <c r="AI2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AL2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="8"/>
+      <c r="AO2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP2" s="8"/>
+      <c r="AR2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS2" s="8"/>
+      <c r="AU2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="8"/>
+      <c r="AX2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY2" s="8"/>
+      <c r="BA2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB2" s="8"/>
+      <c r="BD2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE2" s="8"/>
+      <c r="BG2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH2" s="8"/>
+    </row>
+    <row r="3" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>10</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>10</v>
+      </c>
+      <c r="BA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>10</v>
+      </c>
+      <c r="BG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20</v>
+      </c>
+      <c r="N5" s="10">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>20</v>
+      </c>
+      <c r="T5" s="10">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>20</v>
+      </c>
+      <c r="W5" s="10">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>20</v>
+      </c>
+      <c r="BA5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>20</v>
+      </c>
+      <c r="BD5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>20</v>
+      </c>
+      <c r="BG5" s="10">
+        <v>2</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>30</v>
+      </c>
+      <c r="N6" s="10">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>30</v>
+      </c>
+      <c r="T6" s="10">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>30</v>
+      </c>
+      <c r="W6" s="10">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>30</v>
+      </c>
+      <c r="BA6" s="10">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>30</v>
+      </c>
+      <c r="BD6" s="10">
+        <v>3</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>30</v>
+      </c>
+      <c r="BG6" s="10">
+        <v>3</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>40</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>40</v>
+      </c>
+      <c r="T7" s="10">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>40</v>
+      </c>
+      <c r="W7" s="10">
+        <v>4</v>
+      </c>
+      <c r="X7" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>40</v>
+      </c>
+      <c r="BA7" s="10">
+        <v>4</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>40</v>
+      </c>
+      <c r="BD7" s="10">
+        <v>4</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>40</v>
+      </c>
+      <c r="BG7" s="10">
+        <v>4</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>50</v>
+      </c>
+      <c r="N8" s="10">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>50</v>
+      </c>
+      <c r="T8" s="10">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>50</v>
+      </c>
+      <c r="W8" s="10">
+        <v>5</v>
+      </c>
+      <c r="X8" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AU8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>50</v>
+      </c>
+      <c r="BG8" s="10">
+        <v>5</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="H9" s="10">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>60</v>
+      </c>
+      <c r="K9" s="10">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>60</v>
+      </c>
+      <c r="N9" s="10">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1">
+        <v>60</v>
+      </c>
+      <c r="T9" s="10">
+        <v>6</v>
+      </c>
+      <c r="U9" s="1">
+        <v>60</v>
+      </c>
+      <c r="W9" s="10">
+        <v>6</v>
+      </c>
+      <c r="X9" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>60</v>
+      </c>
+      <c r="BA9" s="10">
+        <v>6</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>60</v>
+      </c>
+      <c r="BD9" s="10">
+        <v>6</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>60</v>
+      </c>
+      <c r="BG9" s="10">
+        <v>6</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>70</v>
+      </c>
+      <c r="E10" s="10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="10">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>70</v>
+      </c>
+      <c r="K10" s="10">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>70</v>
+      </c>
+      <c r="N10" s="10">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>7</v>
+      </c>
+      <c r="R10" s="1">
+        <v>70</v>
+      </c>
+      <c r="T10" s="10">
+        <v>7</v>
+      </c>
+      <c r="U10" s="1">
+        <v>70</v>
+      </c>
+      <c r="W10" s="10">
+        <v>7</v>
+      </c>
+      <c r="X10" s="1">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>70</v>
+      </c>
+      <c r="AX10" s="10">
+        <v>7</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>70</v>
+      </c>
+      <c r="BA10" s="10">
+        <v>7</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>70</v>
+      </c>
+      <c r="BD10" s="10">
+        <v>7</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>70</v>
+      </c>
+      <c r="BG10" s="10">
+        <v>7</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>80</v>
+      </c>
+      <c r="E11" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>80</v>
+      </c>
+      <c r="H11" s="10">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>80</v>
+      </c>
+      <c r="K11" s="10">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>80</v>
+      </c>
+      <c r="N11" s="10">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>8</v>
+      </c>
+      <c r="R11" s="1">
+        <v>80</v>
+      </c>
+      <c r="T11" s="10">
+        <v>8</v>
+      </c>
+      <c r="U11" s="1">
+        <v>80</v>
+      </c>
+      <c r="W11" s="10">
+        <v>8</v>
+      </c>
+      <c r="X11" s="1">
+        <v>80</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>8</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>80</v>
+      </c>
+      <c r="BA11" s="10">
+        <v>8</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>80</v>
+      </c>
+      <c r="BD11" s="10">
+        <v>8</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>80</v>
+      </c>
+      <c r="BG11" s="10">
+        <v>8</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>90</v>
+      </c>
+      <c r="E12" s="10">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>90</v>
+      </c>
+      <c r="H12" s="10">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>90</v>
+      </c>
+      <c r="K12" s="10">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>90</v>
+      </c>
+      <c r="N12" s="10">
+        <v>9</v>
+      </c>
+      <c r="O12" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>90</v>
+      </c>
+      <c r="T12" s="10">
+        <v>9</v>
+      </c>
+      <c r="U12" s="1">
+        <v>90</v>
+      </c>
+      <c r="W12" s="10">
+        <v>9</v>
+      </c>
+      <c r="X12" s="1">
+        <v>90</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AU12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>90</v>
+      </c>
+      <c r="AX12" s="10">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>90</v>
+      </c>
+      <c r="BA12" s="10">
+        <v>9</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>90</v>
+      </c>
+      <c r="BD12" s="10">
+        <v>9</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>90</v>
+      </c>
+      <c r="BG12" s="10">
+        <v>9</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="10">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+      <c r="K13" s="10">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="10">
+        <v>10</v>
+      </c>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1">
+        <v>100</v>
+      </c>
+      <c r="T13" s="10">
+        <v>10</v>
+      </c>
+      <c r="U13" s="1">
+        <v>100</v>
+      </c>
+      <c r="W13" s="10">
+        <v>10</v>
+      </c>
+      <c r="X13" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AL13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AR13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AU13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AX13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>100</v>
+      </c>
+      <c r="BA13" s="10">
+        <v>10</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>100</v>
+      </c>
+      <c r="BD13" s="10">
+        <v>10</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>100</v>
+      </c>
+      <c r="BG13" s="10">
+        <v>10</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>110</v>
+      </c>
+      <c r="E14" s="10">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>110</v>
+      </c>
+      <c r="H14" s="10">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1">
+        <v>110</v>
+      </c>
+      <c r="K14" s="10">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1">
+        <v>110</v>
+      </c>
+      <c r="N14" s="10">
+        <v>11</v>
+      </c>
+      <c r="O14" s="1">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>11</v>
+      </c>
+      <c r="R14" s="1">
+        <v>110</v>
+      </c>
+      <c r="T14" s="10">
+        <v>11</v>
+      </c>
+      <c r="U14" s="1">
+        <v>110</v>
+      </c>
+      <c r="W14" s="10">
+        <v>11</v>
+      </c>
+      <c r="X14" s="1">
+        <v>110</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AR14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AU14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>110</v>
+      </c>
+      <c r="AX14" s="10">
+        <v>11</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>110</v>
+      </c>
+      <c r="BA14" s="10">
+        <v>11</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>110</v>
+      </c>
+      <c r="BD14" s="10">
+        <v>11</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>110</v>
+      </c>
+      <c r="BG14" s="10">
+        <v>11</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>120</v>
+      </c>
+      <c r="E15" s="10">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>120</v>
+      </c>
+      <c r="H15" s="10">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
+        <v>120</v>
+      </c>
+      <c r="K15" s="10">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1">
+        <v>120</v>
+      </c>
+      <c r="N15" s="10">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>12</v>
+      </c>
+      <c r="R15" s="1">
+        <v>120</v>
+      </c>
+      <c r="T15" s="10">
+        <v>12</v>
+      </c>
+      <c r="U15" s="1">
+        <v>120</v>
+      </c>
+      <c r="W15" s="10">
+        <v>12</v>
+      </c>
+      <c r="X15" s="1">
+        <v>120</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AR15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>120</v>
+      </c>
+      <c r="AX15" s="10">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>120</v>
+      </c>
+      <c r="BA15" s="10">
+        <v>12</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>120</v>
+      </c>
+      <c r="BD15" s="10">
+        <v>12</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>120</v>
+      </c>
+      <c r="BG15" s="10">
+        <v>12</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>130</v>
+      </c>
+      <c r="E16" s="10">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>130</v>
+      </c>
+      <c r="H16" s="10">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>130</v>
+      </c>
+      <c r="K16" s="10">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1">
+        <v>130</v>
+      </c>
+      <c r="N16" s="10">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>13</v>
+      </c>
+      <c r="R16" s="1">
+        <v>130</v>
+      </c>
+      <c r="T16" s="10">
+        <v>13</v>
+      </c>
+      <c r="U16" s="1">
+        <v>130</v>
+      </c>
+      <c r="W16" s="10">
+        <v>13</v>
+      </c>
+      <c r="X16" s="1">
+        <v>130</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AU16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AX16" s="10">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>130</v>
+      </c>
+      <c r="BA16" s="10">
+        <v>13</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>130</v>
+      </c>
+      <c r="BD16" s="10">
+        <v>13</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>130</v>
+      </c>
+      <c r="BG16" s="10">
+        <v>13</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>140</v>
+      </c>
+      <c r="E17" s="10">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <v>140</v>
+      </c>
+      <c r="H17" s="10">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>140</v>
+      </c>
+      <c r="K17" s="10">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1">
+        <v>140</v>
+      </c>
+      <c r="N17" s="10">
+        <v>14</v>
+      </c>
+      <c r="O17" s="1">
+        <v>140</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1">
+        <v>140</v>
+      </c>
+      <c r="T17" s="10">
+        <v>14</v>
+      </c>
+      <c r="U17" s="1">
+        <v>140</v>
+      </c>
+      <c r="W17" s="10">
+        <v>14</v>
+      </c>
+      <c r="X17" s="1">
+        <v>140</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AL17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AO17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AR17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AU17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>140</v>
+      </c>
+      <c r="AX17" s="10">
+        <v>14</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>140</v>
+      </c>
+      <c r="BA17" s="10">
+        <v>14</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>140</v>
+      </c>
+      <c r="BD17" s="10">
+        <v>14</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>140</v>
+      </c>
+      <c r="BG17" s="10">
+        <v>14</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150</v>
+      </c>
+      <c r="E18" s="10">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>150</v>
+      </c>
+      <c r="H18" s="10">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1">
+        <v>150</v>
+      </c>
+      <c r="K18" s="10">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1">
+        <v>150</v>
+      </c>
+      <c r="N18" s="10">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>15</v>
+      </c>
+      <c r="R18" s="1">
+        <v>150</v>
+      </c>
+      <c r="T18" s="10">
+        <v>15</v>
+      </c>
+      <c r="U18" s="1">
+        <v>150</v>
+      </c>
+      <c r="W18" s="10">
+        <v>15</v>
+      </c>
+      <c r="X18" s="1">
+        <v>150</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>150</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>150</v>
+      </c>
+      <c r="BA18" s="10">
+        <v>15</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>150</v>
+      </c>
+      <c r="BD18" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>150</v>
+      </c>
+      <c r="BG18" s="10">
+        <v>15</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>160</v>
+      </c>
+      <c r="E19" s="10">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
+        <v>160</v>
+      </c>
+      <c r="H19" s="10">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1">
+        <v>160</v>
+      </c>
+      <c r="K19" s="10">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>160</v>
+      </c>
+      <c r="N19" s="10">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>16</v>
+      </c>
+      <c r="R19" s="1">
+        <v>160</v>
+      </c>
+      <c r="T19" s="10">
+        <v>16</v>
+      </c>
+      <c r="U19" s="1">
+        <v>160</v>
+      </c>
+      <c r="W19" s="10">
+        <v>16</v>
+      </c>
+      <c r="X19" s="1">
+        <v>160</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AL19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AU19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>160</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>16</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>160</v>
+      </c>
+      <c r="BA19" s="10">
+        <v>16</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>160</v>
+      </c>
+      <c r="BD19" s="10">
+        <v>16</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>160</v>
+      </c>
+      <c r="BG19" s="10">
+        <v>16</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>170</v>
+      </c>
+      <c r="E20" s="10">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1">
+        <v>170</v>
+      </c>
+      <c r="H20" s="10">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1">
+        <v>170</v>
+      </c>
+      <c r="K20" s="10">
+        <v>17</v>
+      </c>
+      <c r="L20" s="1">
+        <v>170</v>
+      </c>
+      <c r="N20" s="10">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>17</v>
+      </c>
+      <c r="R20" s="1">
+        <v>170</v>
+      </c>
+      <c r="T20" s="10">
+        <v>17</v>
+      </c>
+      <c r="U20" s="1">
+        <v>170</v>
+      </c>
+      <c r="W20" s="10">
+        <v>17</v>
+      </c>
+      <c r="X20" s="1">
+        <v>170</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AL20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AO20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AU20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>170</v>
+      </c>
+      <c r="AX20" s="10">
+        <v>17</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>170</v>
+      </c>
+      <c r="BA20" s="10">
+        <v>17</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>170</v>
+      </c>
+      <c r="BD20" s="10">
+        <v>17</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>170</v>
+      </c>
+      <c r="BG20" s="10">
+        <v>17</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>180</v>
+      </c>
+      <c r="E21" s="10">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1">
+        <v>180</v>
+      </c>
+      <c r="H21" s="10">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <v>180</v>
+      </c>
+      <c r="K21" s="10">
+        <v>18</v>
+      </c>
+      <c r="L21" s="1">
+        <v>180</v>
+      </c>
+      <c r="N21" s="10">
+        <v>18</v>
+      </c>
+      <c r="O21" s="1">
+        <v>180</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>18</v>
+      </c>
+      <c r="R21" s="1">
+        <v>180</v>
+      </c>
+      <c r="T21" s="10">
+        <v>18</v>
+      </c>
+      <c r="U21" s="1">
+        <v>180</v>
+      </c>
+      <c r="W21" s="10">
+        <v>18</v>
+      </c>
+      <c r="X21" s="1">
+        <v>180</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AL21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AO21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AU21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>180</v>
+      </c>
+      <c r="AX21" s="10">
+        <v>18</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>180</v>
+      </c>
+      <c r="BA21" s="10">
+        <v>18</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>180</v>
+      </c>
+      <c r="BD21" s="10">
+        <v>18</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>180</v>
+      </c>
+      <c r="BG21" s="10">
+        <v>18</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>190</v>
+      </c>
+      <c r="E22" s="10">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>190</v>
+      </c>
+      <c r="H22" s="10">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1">
+        <v>190</v>
+      </c>
+      <c r="K22" s="10">
+        <v>19</v>
+      </c>
+      <c r="L22" s="1">
+        <v>190</v>
+      </c>
+      <c r="N22" s="10">
+        <v>19</v>
+      </c>
+      <c r="O22" s="1">
+        <v>190</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>19</v>
+      </c>
+      <c r="R22" s="1">
+        <v>190</v>
+      </c>
+      <c r="T22" s="10">
+        <v>19</v>
+      </c>
+      <c r="U22" s="1">
+        <v>190</v>
+      </c>
+      <c r="W22" s="10">
+        <v>19</v>
+      </c>
+      <c r="X22" s="1">
+        <v>190</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AL22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AO22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AU22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>190</v>
+      </c>
+      <c r="AX22" s="10">
+        <v>19</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>190</v>
+      </c>
+      <c r="BA22" s="10">
+        <v>19</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>190</v>
+      </c>
+      <c r="BD22" s="10">
+        <v>19</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>190</v>
+      </c>
+      <c r="BG22" s="10">
+        <v>19</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>200</v>
+      </c>
+      <c r="E23" s="11">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>200</v>
+      </c>
+      <c r="H23" s="11">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2">
+        <v>200</v>
+      </c>
+      <c r="K23" s="11">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2">
+        <v>200</v>
+      </c>
+      <c r="N23" s="11">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>20</v>
+      </c>
+      <c r="R23" s="2">
+        <v>200</v>
+      </c>
+      <c r="T23" s="11">
+        <v>20</v>
+      </c>
+      <c r="U23" s="2">
+        <v>200</v>
+      </c>
+      <c r="W23" s="11">
+        <v>20</v>
+      </c>
+      <c r="X23" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AO23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>200</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>20</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>200</v>
+      </c>
+      <c r="BA23" s="11">
+        <v>20</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>200</v>
+      </c>
+      <c r="BD23" s="11">
+        <v>20</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>200</v>
+      </c>
+      <c r="BG23" s="11">
+        <v>20</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <f>AVERAGE(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4,AM4,AP4,AS4,AV4,AY4,BB4,BE4,BH4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:C46" si="0">AVERAGE(C5,F5,I5,L5,O5,R5,U5,X5,AA5,AD5,AG5,AJ5,AM5,AP5,AS5,AV5,AY5,BB5,BE5,BH5)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
+        <v>9</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <v>10</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <v>13</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
+        <v>17</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>18</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
+        <v>19</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12">
+        <v>20</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>